--- a/設計書_打刻侍/50_単体テスト/エビデンス/単体テストエビデンス_(S200)社員画面.xlsx
+++ b/設計書_打刻侍/50_単体テスト/エビデンス/単体テストエビデンス_(S200)社員画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_suzuki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_suzuki\Desktop\dakokusamurai-git-repository\設計書_打刻侍\50_単体テスト\エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CB1FF5-8F70-40D6-8D1B-1B384B84072A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795A23CE-6CDD-4564-BD9D-012D1282AD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4695" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>単体テストエビデンス</t>
     <rPh sb="0" eb="2">
@@ -46,13 +46,6 @@
     <t>S200_社員</t>
     <rPh sb="5" eb="7">
       <t>シャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社員画面イメージ　OK</t>
-    <rPh sb="0" eb="4">
-      <t>シャインガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -99,10 +92,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ケース4～7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ケース18～20</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -182,42 +171,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ケース47～49</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケース50.51</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケース52.53</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケース54.55</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケース56.57</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケース58.59</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケース60.61</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケース62.63</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケース64</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>◆境界値テスト（補正出勤時刻）</t>
     <rPh sb="1" eb="4">
       <t>キョウカイチ</t>
@@ -228,38 +181,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mm = 00　の場合　mm は 15 に補正される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mm = 15　の場合　mm は 15 に補正される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mm = 16　の場合　mm は 30 に補正される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mm = 30　の場合　mm は 30 に補正される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mm = 31　の場合　mm は 45 に補正される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mm = 45　の場合　mm は 45 に補正される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mm = 46　の場合　mm は 00 に補正される　 hh  の値が +1 される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mm = 59　の場合　mm は 00 に補正される　 hh  の値が +1 される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>◆境界値テスト（補正退勤時刻）</t>
     <rPh sb="1" eb="4">
       <t>キョウカイチ</t>
@@ -270,23 +191,137 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mm = 00　の場合　mm は 00 に補正される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mm = 14　の場合　mm は 00 に補正される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mm = 44　の場合　mm は 30 に補正される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mm = 29　の場合　mm は 15 に補正される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mm = 59　の場合　mm は 45 に補正される</t>
+    <t>ケース63</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース61.62</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース59.60</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース57.58</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース55.56</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース53.54</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース51.52</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース49.50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース46～48</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mm = 00　の場合　mm は 00 に補正される　OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mm = 14　の場合　mm は 00 に補正される　OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mm = 15　の場合　mm は 15 に補正される　OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mm = 29　の場合　mm は 15 に補正される　OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mm = 30　の場合　mm は 30 に補正される　OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mm = 44　の場合　mm は 30 に補正される　OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mm = 45　の場合　mm は 45 に補正される　OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mm = 59　の場合　mm は 45 に補正される　OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mm = 59　の場合　mm は 00 に補正される　 hh  の値が +1 される　OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mm = 46　の場合　mm は 00 に補正される　 hh  の値が +1 される　OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mm = 31　の場合　mm は 45 に補正される　OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mm = 16　の場合　mm は 30 に補正される　OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mm = 00　の場合　mm は 15 に補正される　OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請一覧ボタン（画面遷移）　OK</t>
+    <rPh sb="0" eb="4">
+      <t>シンセイイチラン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠状況表ボタン（画面遷移）　OK</t>
+    <rPh sb="0" eb="5">
+      <t>キンタイジョウキョウヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース6.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時刻表示　OK</t>
+    <rPh sb="0" eb="2">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース4.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月日表示</t>
+    <rPh sb="0" eb="4">
+      <t>ツキヒヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -354,17 +389,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1054</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="10927958" cy="5572125"/>
+      <xdr:colOff>3970</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>63502</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10879230" cy="5730874"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7C9201-05E0-4958-958A-6E66F68EC99D}"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C0C02F3-0E40-4F12-88F4-51C310E997EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -386,8 +421,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1020229" y="1206500"/>
-          <a:ext cx="10927958" cy="5572125"/>
+          <a:off x="1039814" y="14351002"/>
+          <a:ext cx="10879230" cy="5730874"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -399,17 +434,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>15876</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>63502</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="10879230" cy="5730874"/>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10901782" cy="5715000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C0C02F3-0E40-4F12-88F4-51C310E997EF}"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04001FCB-396E-49A1-9508-E5CD12AB7035}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -431,8 +466,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1035051" y="14351002"/>
-          <a:ext cx="10879230" cy="5730874"/>
+          <a:off x="1019175" y="7635875"/>
+          <a:ext cx="10901782" cy="5715000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -444,17 +479,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:colOff>3968</xdr:colOff>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10901782" cy="5715000"/>
+    <xdr:ext cx="10898187" cy="5736766"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04001FCB-396E-49A1-9508-E5CD12AB7035}"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F84D06AA-934F-46C5-BA59-B7B3CC0BCC35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -476,8 +511,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1019175" y="7635875"/>
-          <a:ext cx="10901782" cy="5715000"/>
+          <a:off x="1039812" y="20732750"/>
+          <a:ext cx="10898187" cy="5736766"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -486,20 +521,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="10898187" cy="5736766"/>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>234950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>20281</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F84D06AA-934F-46C5-BA59-B7B3CC0BCC35}"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67274972-2A61-988B-922A-59654A6773A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -521,8 +561,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1035049" y="20732750"/>
-          <a:ext cx="10898187" cy="5736766"/>
+          <a:off x="1056217" y="49648533"/>
+          <a:ext cx="10810875" cy="5870748"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -530,26 +570,26 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>234950</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>511175</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>20281</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>21197</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67274972-2A61-988B-922A-59654A6773A4}"/>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C78D91E-7AF8-F2F8-3A65-452F3FD87397}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -571,8 +611,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1050925" y="34763075"/>
-          <a:ext cx="10731500" cy="5738456"/>
+          <a:off x="1037167" y="56229250"/>
+          <a:ext cx="10842625" cy="5863197"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -585,21 +625,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>21197</xdr:rowOff>
+      <xdr:colOff>543513</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C78D91E-7AF8-F2F8-3A65-452F3FD87397}"/>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065ADB15-7B82-9C58-910C-64BEAAD96A5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -621,8 +661,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1031875" y="41195625"/>
-          <a:ext cx="10763250" cy="5736197"/>
+          <a:off x="1031875" y="54070250"/>
+          <a:ext cx="10782888" cy="5730875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -633,23 +673,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1031874</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>543513</xdr:colOff>
-      <xdr:row>252</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>507999</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>4869</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065ADB15-7B82-9C58-910C-64BEAAD96A5C}"/>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB1666E-5DDF-293B-6B12-404CCF9CF838}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -671,8 +711,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1031875" y="54070250"/>
-          <a:ext cx="10782888" cy="5730875"/>
+          <a:off x="1031874" y="47625000"/>
+          <a:ext cx="10747375" cy="5719869"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -683,23 +723,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1031874</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>507999</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>4869</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>17320</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>214939</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>220133</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB1666E-5DDF-293B-6B12-404CCF9CF838}"/>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E709D8-1C76-E2E7-DBD9-85542DF314AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -721,8 +761,3170 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1031874" y="47625000"/>
-          <a:ext cx="10747375" cy="5719869"/>
+          <a:off x="1053164" y="27416124"/>
+          <a:ext cx="7793806" cy="1140883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>17311</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>232834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>111227</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>163178</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC905CA-6F63-742D-F2F1-12ADBDA7B04C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1053155" y="29284084"/>
+          <a:ext cx="7690103" cy="1359094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>17319</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>232833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>214938</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>60563</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2600DA56-163E-33E3-F052-2D15A2F19606}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1053163" y="31427208"/>
+          <a:ext cx="7793806" cy="1494605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>34633</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>21168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>232252</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>203199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D61E17FF-1324-312E-26FC-66EFAB642B69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1070477" y="33596793"/>
+          <a:ext cx="7793806" cy="1848907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>51956</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>249575</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>194661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3DEC86-3590-EE63-E836-E2AFBD70268C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1087800" y="36179125"/>
+          <a:ext cx="7793806" cy="2115536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>17316</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>214935</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>1248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9FD7347-AAEF-8D9C-71E2-00E32304DBE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1053160" y="39052500"/>
+          <a:ext cx="7793806" cy="2382498"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1026583</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>4811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>151073</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>36973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{211C2B74-90DB-044C-E69E-4EEB5F4D5259}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1026583" y="45486686"/>
+          <a:ext cx="7756521" cy="2889662"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1023938</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>14071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47399</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>6413</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E914C73A-D5B5-F0E6-0F48-779C5FF5F100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1023938" y="75261571"/>
+          <a:ext cx="7655492" cy="944841"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1023938</xdr:colOff>
+      <xdr:row>423</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>141577</xdr:colOff>
+      <xdr:row>435</xdr:row>
+      <xdr:rowOff>52335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87CFC4DF-6D78-10BF-993B-95E682D5EC47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1023938" y="97172318"/>
+          <a:ext cx="7749670" cy="2892517"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1012031</xdr:colOff>
+      <xdr:row>409</xdr:row>
+      <xdr:rowOff>230547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>129670</xdr:colOff>
+      <xdr:row>419</xdr:row>
+      <xdr:rowOff>178827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCC012F-A41C-46A0-2FD4-013905727086}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1012031" y="94051797"/>
+          <a:ext cx="7749670" cy="2329529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>13040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="図 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0678BCC-A556-FFE3-AE63-78747978209A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1059657" y="42076687"/>
+          <a:ext cx="7772400" cy="2703853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>214314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>634461</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>52833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A1A6847-A71B-7C43-9F74-D25DCA06123B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1059656" y="76890564"/>
+          <a:ext cx="7516274" cy="3172268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7124</xdr:colOff>
+      <xdr:row>362</xdr:row>
+      <xdr:rowOff>233344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>183337</xdr:colOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>215941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C36CFF39-D4EE-7751-8D16-4CF9E65125D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1042968" y="82862719"/>
+          <a:ext cx="7772400" cy="3316348"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2344</xdr:colOff>
+      <xdr:row>390</xdr:row>
+      <xdr:rowOff>228563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>178557</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>134976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="図 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5C0749-1C5F-95C5-C50C-64D6760D2908}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038188" y="89525438"/>
+          <a:ext cx="7772400" cy="3716414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1023939</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>32024</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>14485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="図 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10BF1F21-7C67-40D1-CDAB-178BA754EA60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1023939" y="80748187"/>
+          <a:ext cx="7640116" cy="1419423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11904</xdr:colOff>
+      <xdr:row>379</xdr:row>
+      <xdr:rowOff>226220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>160623</xdr:colOff>
+      <xdr:row>388</xdr:row>
+      <xdr:rowOff>26466</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="図 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2953BAC2-2DB8-A832-428B-75AF54D9159B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047748" y="86903720"/>
+          <a:ext cx="7744906" cy="1943371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>202406</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A65BB21-4F11-B691-3F8D-2989E5D0B321}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952875" y="27991594"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>511970</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>559594</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C88C6E8-C758-42B7-BCFC-DAFD631B0AA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6381751" y="27991594"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6804A87D-1542-488E-97EA-0E8D2D1CBB8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3881438" y="30110906"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>440531</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>488155</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="正方形/長方形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA549AB3-AB51-4261-B2BF-7176B0A01542}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6310312" y="30110906"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83343</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BC9064C-404F-454E-B94A-625A1A50AEAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3881437" y="32396907"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86581C16-60CD-4367-ABBC-51AD87FD7EF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6322219" y="32396906"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B903914-167D-438F-80D2-6B838C389CDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905250" y="34861500"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="正方形/長方形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F8CC70-45BB-45A1-A8DE-7E8F77964641}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6346031" y="34861500"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="正方形/長方形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{800EFCFF-F359-41D0-A53E-374660CB0C57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3917156" y="37754719"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>440531</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>488155</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="正方形/長方形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841EDCCE-FF3A-4F0F-A738-30BD2D3F8E50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6310312" y="37742813"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="正方形/長方形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF97427-77A6-4A18-BE48-A5AF173365AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3917156" y="40897969"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>481661</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>529285</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="正方形/長方形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2FB953F-5464-4F04-BCCB-34F5F31E5547}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6351442" y="40897969"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="正方形/長方形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08282E56-2219-491E-9F42-EA6948B3BF58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3893344" y="44231718"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>440532</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96112D1C-2214-4E94-AA97-09F6490884E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6310313" y="44219812"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>226219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C54B64-F88C-4BCD-8DC8-A64275727319}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3893344" y="47851219"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>464344</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>226219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>511968</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="正方形/長方形 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EF50F6-BB17-4CD3-AB9E-DEF13FDF3266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6334125" y="47851219"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>511969</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>559593</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>226218</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="正方形/長方形 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75CAA43A-30DC-48BB-8C2B-D64A2F3C0916}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5000625" y="75747562"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>226218</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="正方形/長方形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1991FD6-B9B1-48C9-BC36-1336E4C6B7BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7298531" y="75747562"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="正方形/長方形 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{215763C2-D243-4473-AD09-6144E3B13632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4964907" y="79462312"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48B87E56-D030-45EC-912D-CAD6FA89D650}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7250907" y="79462312"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="正方形/長方形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF15CD54-003A-44AF-8866-F794E69D9B2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5012532" y="81557812"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47631</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95255</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="正方形/長方形 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C320DE-9013-4F42-9CAB-CCAA0238BE3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7298537" y="81557813"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>374</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>500061</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="正方形/長方形 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2758A2F-05D3-4DA1-B203-CD0B02DDB71E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4941093" y="85605938"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>631031</xdr:colOff>
+      <xdr:row>374</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>678656</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="正方形/長方形 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D592AD12-31F2-4E38-941E-3EABC0E5E01A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7191375" y="85605938"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>535781</xdr:colOff>
+      <xdr:row>385</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>583405</xdr:colOff>
+      <xdr:row>386</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="正方形/長方形 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{646EDF2D-BCA9-49FD-948E-DE19A61753C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5024437" y="88272937"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>385</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>386</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="正方形/長方形 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F7D5B9-C544-4927-8E7D-CA3867B01397}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7322344" y="88272937"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>547686</xdr:colOff>
+      <xdr:row>405</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="正方形/長方形 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{775D4EEC-6D89-4EB1-87CF-58EA0EA4B5EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4988718" y="92678250"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>405</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="正方形/長方形 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A189A5A-A8A7-4A96-BB84-AD81EB25CDA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7262813" y="92678250"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>464344</xdr:colOff>
+      <xdr:row>417</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>511968</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="正方形/長方形 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF253BAC-13B6-4D18-B3D2-C0F2E9A949D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4953000" y="95881032"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>654843</xdr:colOff>
+      <xdr:row>417</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11905</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="正方形/長方形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2EDF9FF-078A-47BE-89E1-157D7B52764F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7215187" y="95881031"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>432</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>535780</xdr:colOff>
+      <xdr:row>433</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="正方形/長方形 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3986ECE2-4364-4BC0-90DB-EA522FF01EE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4976812" y="99488625"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>678656</xdr:colOff>
+      <xdr:row>432</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>433</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="正方形/長方形 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D7A17B-552D-4819-A56C-8949BE4F2A66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="99488625"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>462</xdr:row>
+      <xdr:rowOff>107599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="図 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{342BEFCF-9ECA-7692-C3C3-EECC50348B07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047751" y="100738781"/>
+          <a:ext cx="10918030" cy="5810693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>466</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>559594</xdr:colOff>
+      <xdr:row>490</xdr:row>
+      <xdr:rowOff>107601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="図 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B3A8F01-AE9C-2EF9-6287-190EA3583A14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1035844" y="107406282"/>
+          <a:ext cx="10918031" cy="5810694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>195263</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>229449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62082E4-8315-3466-BEEC-D5F6C4899732}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="2876550"/>
+          <a:ext cx="7720013" cy="4287100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>50007</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>135731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>226219</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>224895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{615D34FC-5459-E867-FD89-45C73539B316}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9327357" y="2859881"/>
+          <a:ext cx="7720012" cy="4299215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1026584</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>194734</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC6E804-974D-3C1C-6D45-F31288180515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1026584" y="1227666"/>
+          <a:ext cx="7772400" cy="4371975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52916</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>258233</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{403F25CE-10AA-B627-DEF6-FF02183B72EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9345083" y="1218140"/>
+          <a:ext cx="7772400" cy="4381500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -997,10 +4199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB87C5F3-AF35-4481-86D2-A4273C4498F7}">
-  <dimension ref="A1:B287"/>
+  <dimension ref="A1:B465"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AE24" sqref="AE24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1020,209 +4222,228 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>10</v>
-      </c>
-      <c r="B114" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>11</v>
-      </c>
-      <c r="B118" t="s">
+      <c r="B137" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>12</v>
-      </c>
-      <c r="B122" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>13</v>
-      </c>
-      <c r="B126" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>14</v>
-      </c>
-      <c r="B130" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>15</v>
-      </c>
-      <c r="B134" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>16</v>
-      </c>
-      <c r="B138" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>17</v>
-      </c>
-      <c r="B142" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>14</v>
+      </c>
+      <c r="B191" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>15</v>
+      </c>
+      <c r="B205" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>16</v>
+      </c>
+      <c r="B221" t="s">
         <v>18</v>
       </c>
-      <c r="B146" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>17</v>
+      </c>
+      <c r="B248" t="s">
         <v>19</v>
-      </c>
-      <c r="B173" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="s">
-        <v>22</v>
-      </c>
-      <c r="B200" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" t="s">
-        <v>23</v>
-      </c>
-      <c r="B227" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" t="s">
-        <v>26</v>
-      </c>
-      <c r="B255" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" t="s">
-        <v>27</v>
-      </c>
-      <c r="B259" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" t="s">
-        <v>28</v>
-      </c>
-      <c r="B263" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" t="s">
-        <v>29</v>
-      </c>
-      <c r="B267" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" t="s">
-        <v>30</v>
-      </c>
-      <c r="B271" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
+        <v>20</v>
+      </c>
+      <c r="B275" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>21</v>
+      </c>
+      <c r="B302" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>34</v>
+      </c>
+      <c r="B330" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>33</v>
+      </c>
+      <c r="B337" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>32</v>
+      </c>
+      <c r="B353" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
         <v>31</v>
       </c>
-      <c r="B275" t="s">
-        <v>47</v>
+      <c r="B362" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
-      <c r="A279" t="s">
-        <v>32</v>
-      </c>
-      <c r="B279" t="s">
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
+        <v>30</v>
+      </c>
+      <c r="B379" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
+        <v>29</v>
+      </c>
+      <c r="B390" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" t="s">
+        <v>28</v>
+      </c>
+      <c r="B409" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
-      <c r="A283" t="s">
-        <v>33</v>
-      </c>
-      <c r="B283" t="s">
+    <row r="422" spans="1:2">
+      <c r="A422" t="s">
+        <v>27</v>
+      </c>
+      <c r="B422" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" t="s">
+        <v>26</v>
+      </c>
+      <c r="B437" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
-      <c r="A287" t="s">
-        <v>34</v>
+    <row r="465" spans="1:2">
+      <c r="A465" t="s">
+        <v>48</v>
+      </c>
+      <c r="B465" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/設計書_打刻侍/50_単体テスト/エビデンス/単体テストエビデンス_(S200)社員画面.xlsx
+++ b/設計書_打刻侍/50_単体テスト/エビデンス/単体テストエビデンス_(S200)社員画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_suzuki\Desktop\dakokusamurai-git-repository\設計書_打刻侍\50_単体テスト\エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795A23CE-6CDD-4564-BD9D-012D1282AD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0541A044-9311-4C8F-8A33-8DCDD6040AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>単体テストエビデンス</t>
     <rPh sb="0" eb="2">
@@ -322,6 +322,27 @@
     <rPh sb="0" eb="4">
       <t>ツキヒヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース1～3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL直接打ち込み：index.jspへ遷移</t>
+    <rPh sb="3" eb="6">
+      <t>チョクセツウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -390,7 +411,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3970</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>63502</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="10879230" cy="5730874"/>
@@ -435,7 +456,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="10901782" cy="5715000"/>
@@ -480,7 +501,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3968</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="10898187" cy="5736766"/>
@@ -525,14 +546,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>234950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>511175</xdr:colOff>
-      <xdr:row>246</xdr:row>
-      <xdr:rowOff>20281</xdr:rowOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>20282</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -575,13 +596,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>269</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>293</xdr:row>
       <xdr:rowOff>21197</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -625,13 +646,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>303</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>543513</xdr:colOff>
-      <xdr:row>327</xdr:row>
+      <xdr:row>347</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -675,13 +696,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1031874</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>507999</xdr:colOff>
-      <xdr:row>300</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>4869</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -725,14 +746,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>17320</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>31749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>214939</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>220133</xdr:rowOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>220132</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -775,13 +796,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>17311</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>232834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>111227</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>163178</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -825,14 +846,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>17319</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>232833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>214938</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>60563</xdr:rowOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>60564</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -875,13 +896,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>34633</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>21168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>232252</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>203199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -925,13 +946,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>51956</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>222250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>249575</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>194661</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -975,14 +996,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>17316</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>214935</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>1248</xdr:rowOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>1249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1025,13 +1046,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1026583</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>4811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>151073</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>36973</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1075,14 +1096,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1023938</xdr:colOff>
-      <xdr:row>331</xdr:row>
+      <xdr:row>351</xdr:row>
       <xdr:rowOff>14071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>47399</xdr:colOff>
-      <xdr:row>335</xdr:row>
-      <xdr:rowOff>6413</xdr:rowOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>6412</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1125,13 +1146,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1023938</xdr:colOff>
-      <xdr:row>423</xdr:row>
+      <xdr:row>443</xdr:row>
       <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>141577</xdr:colOff>
-      <xdr:row>435</xdr:row>
+      <xdr:row>455</xdr:row>
       <xdr:rowOff>52335</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1175,14 +1196,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1012031</xdr:colOff>
-      <xdr:row>409</xdr:row>
+      <xdr:row>429</xdr:row>
       <xdr:rowOff>230547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>129670</xdr:colOff>
-      <xdr:row>419</xdr:row>
-      <xdr:rowOff>178827</xdr:rowOff>
+      <xdr:row>439</xdr:row>
+      <xdr:rowOff>178826</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1225,13 +1246,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>13040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1275,13 +1296,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>337</xdr:row>
+      <xdr:row>357</xdr:row>
       <xdr:rowOff>214314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>634461</xdr:colOff>
-      <xdr:row>351</xdr:row>
+      <xdr:row>371</xdr:row>
       <xdr:rowOff>52833</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1325,14 +1346,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7124</xdr:colOff>
-      <xdr:row>362</xdr:row>
+      <xdr:row>382</xdr:row>
       <xdr:rowOff>233344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>183337</xdr:colOff>
-      <xdr:row>376</xdr:row>
-      <xdr:rowOff>215941</xdr:rowOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>215942</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1375,13 +1396,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2344</xdr:colOff>
-      <xdr:row>390</xdr:row>
+      <xdr:row>410</xdr:row>
       <xdr:rowOff>228563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>178557</xdr:colOff>
-      <xdr:row>406</xdr:row>
+      <xdr:row>426</xdr:row>
       <xdr:rowOff>134976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1425,13 +1446,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1023939</xdr:colOff>
-      <xdr:row>354</xdr:row>
+      <xdr:row>374</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>32024</xdr:colOff>
-      <xdr:row>360</xdr:row>
+      <xdr:row>380</xdr:row>
       <xdr:rowOff>14485</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1475,13 +1496,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>11904</xdr:colOff>
-      <xdr:row>379</xdr:row>
+      <xdr:row>399</xdr:row>
       <xdr:rowOff>226220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>160623</xdr:colOff>
-      <xdr:row>388</xdr:row>
+      <xdr:row>408</xdr:row>
       <xdr:rowOff>26466</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1525,13 +1546,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>154781</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>130969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>202406</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1591,13 +1612,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>511970</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>130969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>559594</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1657,13 +1678,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>83344</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>107156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>130969</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1723,13 +1744,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>440531</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>107156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>488155</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1789,13 +1810,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>83343</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>11907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>130968</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>214313</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1855,13 +1876,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>214312</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1921,13 +1942,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>107156</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>154781</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1987,13 +2008,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2053,13 +2074,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>130969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2119,13 +2140,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>440531</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>488155</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>83344</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2185,13 +2206,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2251,13 +2272,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>481661</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>529285</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2317,13 +2338,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>178593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2383,13 +2404,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>440532</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>488156</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>130968</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2449,13 +2470,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2515,13 +2536,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>464344</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>511968</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2581,13 +2602,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>511969</xdr:colOff>
-      <xdr:row>333</xdr:row>
+      <xdr:row>353</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>559593</xdr:colOff>
-      <xdr:row>333</xdr:row>
+      <xdr:row>353</xdr:row>
       <xdr:rowOff>226218</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2647,13 +2668,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>333</xdr:row>
+      <xdr:row>353</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>333</xdr:row>
+      <xdr:row>353</xdr:row>
       <xdr:rowOff>226218</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2713,13 +2734,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>348</xdr:row>
+      <xdr:row>368</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>349</xdr:row>
+      <xdr:row>369</xdr:row>
       <xdr:rowOff>130968</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2779,13 +2800,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>348</xdr:row>
+      <xdr:row>368</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>349</xdr:row>
+      <xdr:row>369</xdr:row>
       <xdr:rowOff>130968</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2845,13 +2866,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>357</xdr:row>
+      <xdr:row>377</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>358</xdr:row>
+      <xdr:row>378</xdr:row>
       <xdr:rowOff>83343</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2911,13 +2932,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>47631</xdr:colOff>
-      <xdr:row>357</xdr:row>
+      <xdr:row>377</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95255</xdr:colOff>
-      <xdr:row>358</xdr:row>
+      <xdr:row>378</xdr:row>
       <xdr:rowOff>83344</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2977,13 +2998,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>374</xdr:row>
+      <xdr:row>394</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>500061</xdr:colOff>
-      <xdr:row>375</xdr:row>
+      <xdr:row>395</xdr:row>
       <xdr:rowOff>83344</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3043,13 +3064,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>631031</xdr:colOff>
-      <xdr:row>374</xdr:row>
+      <xdr:row>394</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>678656</xdr:colOff>
-      <xdr:row>375</xdr:row>
+      <xdr:row>395</xdr:row>
       <xdr:rowOff>83344</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3109,13 +3130,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>535781</xdr:colOff>
-      <xdr:row>385</xdr:row>
+      <xdr:row>405</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>583405</xdr:colOff>
-      <xdr:row>386</xdr:row>
+      <xdr:row>406</xdr:row>
       <xdr:rowOff>130968</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3175,13 +3196,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>71438</xdr:colOff>
-      <xdr:row>385</xdr:row>
+      <xdr:row>405</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>386</xdr:row>
+      <xdr:row>406</xdr:row>
       <xdr:rowOff>130968</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3241,13 +3262,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>404</xdr:row>
+      <xdr:row>424</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>547686</xdr:colOff>
-      <xdr:row>405</xdr:row>
+      <xdr:row>425</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3307,13 +3328,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>404</xdr:row>
+      <xdr:row>424</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>59531</xdr:colOff>
-      <xdr:row>405</xdr:row>
+      <xdr:row>425</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3373,13 +3394,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>464344</xdr:colOff>
-      <xdr:row>417</xdr:row>
+      <xdr:row>437</xdr:row>
       <xdr:rowOff>154782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>511968</xdr:colOff>
-      <xdr:row>418</xdr:row>
+      <xdr:row>438</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3439,13 +3460,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>654843</xdr:colOff>
-      <xdr:row>417</xdr:row>
+      <xdr:row>437</xdr:row>
       <xdr:rowOff>154781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>11905</xdr:colOff>
-      <xdr:row>418</xdr:row>
+      <xdr:row>438</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3505,13 +3526,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>488156</xdr:colOff>
-      <xdr:row>432</xdr:row>
+      <xdr:row>452</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>535780</xdr:colOff>
-      <xdr:row>433</xdr:row>
+      <xdr:row>453</xdr:row>
       <xdr:rowOff>154781</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3571,13 +3592,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>678656</xdr:colOff>
-      <xdr:row>432</xdr:row>
+      <xdr:row>452</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>35718</xdr:colOff>
-      <xdr:row>433</xdr:row>
+      <xdr:row>453</xdr:row>
       <xdr:rowOff>154781</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3637,13 +3658,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>438</xdr:row>
+      <xdr:row>458</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>462</xdr:row>
+      <xdr:row>482</xdr:row>
       <xdr:rowOff>107599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3687,13 +3708,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>466</xdr:row>
+      <xdr:row>486</xdr:row>
       <xdr:rowOff>11907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>559594</xdr:colOff>
-      <xdr:row>490</xdr:row>
+      <xdr:row>510</xdr:row>
       <xdr:rowOff>107601</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3737,14 +3758,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>195263</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>229449</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>229450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3787,14 +3808,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>50007</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>135731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>226219</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>224895</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>224896</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3837,13 +3858,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1026584</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>10583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>194734</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>1058</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3887,13 +3908,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>52916</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>258233</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>1057</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3925,6 +3946,56 @@
         <a:xfrm>
           <a:off x="9345083" y="1218140"/>
           <a:ext cx="7772400" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>205317</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>4161</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA1A42E-73FC-7A68-F79D-14B6A75915DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1037167" y="1217083"/>
+          <a:ext cx="7772400" cy="4142245"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4199,10 +4270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB87C5F3-AF35-4481-86D2-A4273C4498F7}">
-  <dimension ref="A1:B465"/>
+  <dimension ref="A1:F485"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4210,239 +4281,250 @@
     <col min="1" max="1" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B45" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
         <v>7</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B66" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
         <v>5</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B94" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
         <v>6</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B121" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
         <v>8</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B149" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
         <v>9</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B157" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
-        <v>10</v>
-      </c>
-      <c r="B146" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
-        <v>11</v>
-      </c>
-      <c r="B155" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>11</v>
+      </c>
+      <c r="B175" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
         <v>12</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B186" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
         <v>13</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B198" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="s">
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
         <v>14</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B211" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="s">
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
         <v>15</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B225" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
-      <c r="A221" t="s">
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
         <v>16</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B241" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
-      <c r="A248" t="s">
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
         <v>17</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B268" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
-      <c r="A275" t="s">
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
         <v>20</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B295" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
-      <c r="A302" t="s">
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
         <v>21</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B322" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
-      <c r="A329" t="s">
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
-      <c r="A330" t="s">
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
         <v>34</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B350" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
-      <c r="A337" t="s">
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
         <v>33</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B357" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
-      <c r="A353" t="s">
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
         <v>32</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B373" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
-      <c r="A362" t="s">
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
         <v>31</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B382" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
-      <c r="A379" t="s">
+    <row r="399" spans="1:2">
+      <c r="A399" t="s">
         <v>30</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B399" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
-      <c r="A390" t="s">
+    <row r="410" spans="1:2">
+      <c r="A410" t="s">
         <v>29</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B410" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
-      <c r="A409" t="s">
+    <row r="429" spans="1:2">
+      <c r="A429" t="s">
         <v>28</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B429" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
-      <c r="A422" t="s">
+    <row r="442" spans="1:2">
+      <c r="A442" t="s">
         <v>27</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B442" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
-      <c r="A437" t="s">
+    <row r="457" spans="1:2">
+      <c r="A457" t="s">
         <v>26</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B457" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
-      <c r="A465" t="s">
+    <row r="485" spans="1:2">
+      <c r="A485" t="s">
         <v>48</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B485" t="s">
         <v>50</v>
       </c>
     </row>

--- a/設計書_打刻侍/50_単体テスト/エビデンス/単体テストエビデンス_(S200)社員画面.xlsx
+++ b/設計書_打刻侍/50_単体テスト/エビデンス/単体テストエビデンス_(S200)社員画面.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_suzuki\Desktop\dakokusamurai-git-repository\設計書_打刻侍\50_単体テスト\エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0541A044-9311-4C8F-8A33-8DCDD6040AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADD1FAA-BB67-41B9-B0ED-271ABC889AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4695" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
+    <sheet name="1回目" sheetId="9" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>単体テストエビデンス</t>
     <rPh sb="0" eb="2">
@@ -96,39 +96,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ケース21.22</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ケース23.24</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ケース25.26</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケース27.28</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケース29.30</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケース31～33</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケース34～36</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケース37～40</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケース41.42</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -143,14 +115,6 @@
   </si>
   <si>
     <t>「退勤時刻を登録しました」メッセージ　OK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケース43.44</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケース45.46</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -191,10 +155,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ケース63</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ケース61.62</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -216,14 +176,6 @@
   </si>
   <si>
     <t>ケース51.52</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケース49.50</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケース46～48</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -272,14 +224,6 @@
   </si>
   <si>
     <t>mm = 16　の場合　mm は 30 に補正される　OK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mm = 00　の場合　mm は 15 に補正される　OK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケース64</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -345,6 +289,144 @@
     <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※社員1でログインし「退勤」ボタンをクリック</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※社員1でログインし「出勤」ボタンをクリック</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュッキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※社員1として「出勤」ボタンをクリックしていない状態（当日のDBが空）</t>
+    <rPh sb="8" eb="10">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウジツ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※DB処理</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※社員1としてすでに「退勤」ボタンをクリックしている状態（同日）</t>
+    <rPh sb="11" eb="13">
+      <t>タイキン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ドウジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※社員1としてすでに「出勤」ボタンをクリックしている状態（同日）</t>
+    <rPh sb="11" eb="12">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mm = 00　の場合　補正されない　OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース21.22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mm = 01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>の場合　mmは 15 に補正される　OK</t>
+    <rPh sb="1" eb="3">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース27.28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース29.30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース31.32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース33～35</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース36～38</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース39～41</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース42.43</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース44.45</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース46.47</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース48～50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース63.64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース65</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース66</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -411,7 +493,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3970</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>63502</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="10879230" cy="5730874"/>
@@ -454,12 +536,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="10901782" cy="5715000"/>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1005416</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>32808</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="984250"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="図 3">
@@ -473,7 +555,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -481,14 +563,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="16213" t="43426" r="31365" b="39352"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1019175" y="7635875"/>
-          <a:ext cx="10901782" cy="5715000"/>
+          <a:off x="1005416" y="18775891"/>
+          <a:ext cx="5715000" cy="984250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -501,7 +582,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3968</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="10898187" cy="5736766"/>
@@ -544,16 +625,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>241</xdr:row>
-      <xdr:rowOff>234950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>511175</xdr:colOff>
-      <xdr:row>266</xdr:row>
-      <xdr:rowOff>20282</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1037166</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -568,7 +649,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -576,14 +657,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="16662" t="43229" r="31552" b="40006"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1056217" y="49648533"/>
-          <a:ext cx="10810875" cy="5870748"/>
+          <a:off x="1037166" y="58927999"/>
+          <a:ext cx="5598583" cy="984250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -596,13 +676,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>269</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:row>297</xdr:row>
       <xdr:rowOff>21197</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -646,13 +726,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>323</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>543513</xdr:colOff>
-      <xdr:row>347</xdr:row>
+      <xdr:row>351</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -696,13 +776,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1031874</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>300</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>507999</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>324</xdr:row>
       <xdr:rowOff>4869</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -745,22 +825,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>17320</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:colOff>17311</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>232834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>214939</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>220132</xdr:rowOff>
+      <xdr:colOff>111227</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>163178</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E709D8-1C76-E2E7-DBD9-85542DF314AA}"/>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC905CA-6F63-742D-F2F1-12ADBDA7B04C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -782,8 +862,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1053164" y="27416124"/>
-          <a:ext cx="7793806" cy="1140883"/>
+          <a:off x="1053155" y="29284084"/>
+          <a:ext cx="7690103" cy="1359094"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -795,22 +875,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>17311</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>232834</xdr:rowOff>
+      <xdr:colOff>53038</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>6614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>111227</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>163178</xdr:rowOff>
+      <xdr:colOff>250657</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>72470</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC905CA-6F63-742D-F2F1-12ADBDA7B04C}"/>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2600DA56-163E-33E3-F052-2D15A2F19606}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -832,8 +912,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1053155" y="29284084"/>
-          <a:ext cx="7690103" cy="1359094"/>
+          <a:off x="1088882" y="42154739"/>
+          <a:ext cx="7793806" cy="1494606"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -845,22 +925,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>17319</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>232833</xdr:rowOff>
+      <xdr:colOff>34633</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>21168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>214938</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>60564</xdr:rowOff>
+      <xdr:colOff>232252</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>203199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="図 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2600DA56-163E-33E3-F052-2D15A2F19606}"/>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D61E17FF-1324-312E-26FC-66EFAB642B69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -882,8 +962,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1053163" y="31427208"/>
-          <a:ext cx="7793806" cy="1494605"/>
+          <a:off x="1070477" y="33596793"/>
+          <a:ext cx="7793806" cy="1848907"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -895,22 +975,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>34633</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>21168</xdr:rowOff>
+      <xdr:colOff>51956</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>232252</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>203199</xdr:rowOff>
+      <xdr:colOff>249575</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>194661</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D61E17FF-1324-312E-26FC-66EFAB642B69}"/>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3DEC86-3590-EE63-E836-E2AFBD70268C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,8 +1012,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1070477" y="33596793"/>
-          <a:ext cx="7793806" cy="1848907"/>
+          <a:off x="1087800" y="36179125"/>
+          <a:ext cx="7793806" cy="2115536"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -945,22 +1025,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>51956</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
+      <xdr:colOff>17316</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>249575</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>194661</xdr:rowOff>
+      <xdr:colOff>214935</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>1249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3DEC86-3590-EE63-E836-E2AFBD70268C}"/>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9FD7347-AAEF-8D9C-71E2-00E32304DBE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -982,8 +1062,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1087800" y="36179125"/>
-          <a:ext cx="7793806" cy="2115536"/>
+          <a:off x="1053160" y="39052500"/>
+          <a:ext cx="7793806" cy="2382498"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -994,23 +1074,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>17316</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1026583</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>4811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>214935</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>1249</xdr:rowOff>
+      <xdr:colOff>151073</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>36973</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9FD7347-AAEF-8D9C-71E2-00E32304DBE6}"/>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{211C2B74-90DB-044C-E69E-4EEB5F4D5259}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1032,8 +1112,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1053160" y="39052500"/>
-          <a:ext cx="7793806" cy="2382498"/>
+          <a:off x="1026583" y="45486686"/>
+          <a:ext cx="7756521" cy="2889662"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1045,22 +1125,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1026583</xdr:colOff>
-      <xdr:row>226</xdr:row>
-      <xdr:rowOff>4811</xdr:rowOff>
+      <xdr:colOff>1023938</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>14071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>151073</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>36973</xdr:rowOff>
+      <xdr:colOff>47399</xdr:colOff>
+      <xdr:row>359</xdr:row>
+      <xdr:rowOff>6412</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{211C2B74-90DB-044C-E69E-4EEB5F4D5259}"/>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E914C73A-D5B5-F0E6-0F48-779C5FF5F100}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1082,8 +1162,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1026583" y="45486686"/>
-          <a:ext cx="7756521" cy="2889662"/>
+          <a:off x="1023938" y="75261571"/>
+          <a:ext cx="7655492" cy="944841"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1096,21 +1176,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1023938</xdr:colOff>
-      <xdr:row>351</xdr:row>
-      <xdr:rowOff>14071</xdr:rowOff>
+      <xdr:row>447</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>47399</xdr:colOff>
-      <xdr:row>355</xdr:row>
-      <xdr:rowOff>6412</xdr:rowOff>
+      <xdr:colOff>141577</xdr:colOff>
+      <xdr:row>459</xdr:row>
+      <xdr:rowOff>52335</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E914C73A-D5B5-F0E6-0F48-779C5FF5F100}"/>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87CFC4DF-6D78-10BF-993B-95E682D5EC47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1132,8 +1212,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1023938" y="75261571"/>
-          <a:ext cx="7655492" cy="944841"/>
+          <a:off x="1023938" y="97172318"/>
+          <a:ext cx="7749670" cy="2892517"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1145,22 +1225,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1023938</xdr:colOff>
+      <xdr:colOff>1012031</xdr:colOff>
+      <xdr:row>433</xdr:row>
+      <xdr:rowOff>230547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>129670</xdr:colOff>
       <xdr:row>443</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>141577</xdr:colOff>
-      <xdr:row>455</xdr:row>
-      <xdr:rowOff>52335</xdr:rowOff>
+      <xdr:rowOff>178826</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="図 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87CFC4DF-6D78-10BF-993B-95E682D5EC47}"/>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCC012F-A41C-46A0-2FD4-013905727086}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1182,8 +1262,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1023938" y="97172318"/>
-          <a:ext cx="7749670" cy="2892517"/>
+          <a:off x="1012031" y="94051797"/>
+          <a:ext cx="7749670" cy="2329529"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1194,23 +1274,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1012031</xdr:colOff>
-      <xdr:row>429</xdr:row>
-      <xdr:rowOff>230547</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>129670</xdr:colOff>
-      <xdr:row>439</xdr:row>
-      <xdr:rowOff>178826</xdr:rowOff>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>13040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="図 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCC012F-A41C-46A0-2FD4-013905727086}"/>
+        <xdr:cNvPr id="49" name="図 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0678BCC-A556-FFE3-AE63-78747978209A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1232,8 +1312,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1012031" y="94051797"/>
-          <a:ext cx="7749670" cy="2329529"/>
+          <a:off x="1059657" y="42076687"/>
+          <a:ext cx="7772400" cy="2703853"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1245,22 +1325,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>13040</xdr:rowOff>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>214314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>634461</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>52833</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="図 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0678BCC-A556-FFE3-AE63-78747978209A}"/>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A1A6847-A71B-7C43-9F74-D25DCA06123B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1282,8 +1362,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1059657" y="42076687"/>
-          <a:ext cx="7772400" cy="2703853"/>
+          <a:off x="1059656" y="76890564"/>
+          <a:ext cx="7516274" cy="3172268"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1295,22 +1375,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>357</xdr:row>
-      <xdr:rowOff>214314</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>634461</xdr:colOff>
-      <xdr:row>371</xdr:row>
-      <xdr:rowOff>52833</xdr:rowOff>
+      <xdr:colOff>7124</xdr:colOff>
+      <xdr:row>386</xdr:row>
+      <xdr:rowOff>233344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>183337</xdr:colOff>
+      <xdr:row>400</xdr:row>
+      <xdr:rowOff>215942</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="図 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A1A6847-A71B-7C43-9F74-D25DCA06123B}"/>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C36CFF39-D4EE-7751-8D16-4CF9E65125D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1332,8 +1412,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1059656" y="76890564"/>
-          <a:ext cx="7516274" cy="3172268"/>
+          <a:off x="1042968" y="82862719"/>
+          <a:ext cx="7772400" cy="3316348"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1345,22 +1425,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7124</xdr:colOff>
-      <xdr:row>382</xdr:row>
-      <xdr:rowOff>233344</xdr:rowOff>
+      <xdr:colOff>2344</xdr:colOff>
+      <xdr:row>414</xdr:row>
+      <xdr:rowOff>228563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>183337</xdr:colOff>
-      <xdr:row>396</xdr:row>
-      <xdr:rowOff>215942</xdr:rowOff>
+      <xdr:colOff>178557</xdr:colOff>
+      <xdr:row>430</xdr:row>
+      <xdr:rowOff>134976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="図 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C36CFF39-D4EE-7751-8D16-4CF9E65125D3}"/>
+        <xdr:cNvPr id="55" name="図 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5C0749-1C5F-95C5-C50C-64D6760D2908}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1382,8 +1462,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1042968" y="82862719"/>
-          <a:ext cx="7772400" cy="3316348"/>
+          <a:off x="1038188" y="89525438"/>
+          <a:ext cx="7772400" cy="3716414"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1394,23 +1474,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2344</xdr:colOff>
-      <xdr:row>410</xdr:row>
-      <xdr:rowOff>228563</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1023939</xdr:colOff>
+      <xdr:row>378</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>178557</xdr:colOff>
-      <xdr:row>426</xdr:row>
-      <xdr:rowOff>134976</xdr:rowOff>
+      <xdr:colOff>32024</xdr:colOff>
+      <xdr:row>384</xdr:row>
+      <xdr:rowOff>14485</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="図 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5C0749-1C5F-95C5-C50C-64D6760D2908}"/>
+        <xdr:cNvPr id="57" name="図 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10BF1F21-7C67-40D1-CDAB-178BA754EA60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1432,8 +1512,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1038188" y="89525438"/>
-          <a:ext cx="7772400" cy="3716414"/>
+          <a:off x="1023939" y="80748187"/>
+          <a:ext cx="7640116" cy="1419423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1444,23 +1524,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1023939</xdr:colOff>
-      <xdr:row>374</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11904</xdr:colOff>
+      <xdr:row>403</xdr:row>
+      <xdr:rowOff>226220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>32024</xdr:colOff>
-      <xdr:row>380</xdr:row>
-      <xdr:rowOff>14485</xdr:rowOff>
+      <xdr:colOff>160623</xdr:colOff>
+      <xdr:row>412</xdr:row>
+      <xdr:rowOff>26466</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="図 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10BF1F21-7C67-40D1-CDAB-178BA754EA60}"/>
+        <xdr:cNvPr id="59" name="図 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2953BAC2-2DB8-A832-428B-75AF54D9159B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1482,56 +1562,6 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1023939" y="80748187"/>
-          <a:ext cx="7640116" cy="1419423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>11904</xdr:colOff>
-      <xdr:row>399</xdr:row>
-      <xdr:rowOff>226220</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>160623</xdr:colOff>
-      <xdr:row>408</xdr:row>
-      <xdr:rowOff>26466</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="図 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2953BAC2-2DB8-A832-428B-75AF54D9159B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="1047748" y="86903720"/>
           <a:ext cx="7744906" cy="1943371"/>
         </a:xfrm>
@@ -1545,22 +1575,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>154781</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>202406</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="正方形/長方形 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A65BB21-4F11-B691-3F8D-2989E5D0B321}"/>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6804A87D-1542-488E-97EA-0E8D2D1CBB8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1598,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3952875" y="27991594"/>
+          <a:off x="3881438" y="30110906"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1611,22 +1641,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>511970</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:colOff>440531</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>559594</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>488155</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="正方形/長方形 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C88C6E8-C758-42B7-BCFC-DAFD631B0AA3}"/>
+        <xdr:cNvPr id="64" name="正方形/長方形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA549AB3-AB51-4261-B2BF-7176B0A01542}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,7 +1664,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6381751" y="27991594"/>
+          <a:off x="6310312" y="30110906"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1677,22 +1707,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>83344</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:colOff>83343</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>130969</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="正方形/長方形 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6804A87D-1542-488E-97EA-0E8D2D1CBB8B}"/>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BC9064C-404F-454E-B94A-625A1A50AEAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,7 +1730,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3881438" y="30110906"/>
+          <a:off x="3881437" y="32396907"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1743,22 +1773,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>440531</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>488155</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="正方形/長方形 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA549AB3-AB51-4261-B2BF-7176B0A01542}"/>
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86581C16-60CD-4367-ABBC-51AD87FD7EF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1766,7 +1796,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6310312" y="30110906"/>
+          <a:off x="6322219" y="32396906"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1809,22 +1839,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>83343</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>11907</xdr:rowOff>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>130968</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>214313</xdr:rowOff>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="正方形/長方形 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BC9064C-404F-454E-B94A-625A1A50AEAF}"/>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B903914-167D-438F-80D2-6B838C389CDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1832,7 +1862,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3881437" y="32396907"/>
+          <a:off x="3905250" y="34861500"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1875,22 +1905,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>214312</xdr:rowOff>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="正方形/長方形 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86581C16-60CD-4367-ABBC-51AD87FD7EF5}"/>
+        <xdr:cNvPr id="68" name="正方形/長方形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F8CC70-45BB-45A1-A8DE-7E8F77964641}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1928,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6322219" y="32396906"/>
+          <a:off x="6346031" y="34861500"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1941,22 +1971,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>107156</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>154781</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="正方形/長方形 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B903914-167D-438F-80D2-6B838C389CDA}"/>
+        <xdr:cNvPr id="69" name="正方形/長方形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{800EFCFF-F359-41D0-A53E-374660CB0C57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1964,7 +1994,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3905250" y="34861500"/>
+          <a:off x="3917156" y="37754719"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2007,22 +2037,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>440531</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
+      <xdr:colOff>488155</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="正方形/長方形 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F8CC70-45BB-45A1-A8DE-7E8F77964641}"/>
+        <xdr:cNvPr id="70" name="正方形/長方形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841EDCCE-FF3A-4F0F-A738-30BD2D3F8E50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2030,7 +2060,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6346031" y="34861500"/>
+          <a:off x="6310312" y="37742813"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2074,21 +2104,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="正方形/長方形 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{800EFCFF-F359-41D0-A53E-374660CB0C57}"/>
+        <xdr:cNvPr id="71" name="正方形/長方形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF97427-77A6-4A18-BE48-A5AF173365AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2096,7 +2126,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3917156" y="37754719"/>
+          <a:off x="3917156" y="40897969"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2139,22 +2169,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>440531</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:colOff>481661</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>488155</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:colOff>529285</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="正方形/長方形 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841EDCCE-FF3A-4F0F-A738-30BD2D3F8E50}"/>
+        <xdr:cNvPr id="72" name="正方形/長方形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2FB953F-5464-4F04-BCCB-34F5F31E5547}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2162,7 +2192,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6310312" y="37742813"/>
+          <a:off x="6351442" y="40897969"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2205,22 +2235,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="正方形/長方形 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF97427-77A6-4A18-BE48-A5AF173365AA}"/>
+        <xdr:cNvPr id="75" name="正方形/長方形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08282E56-2219-491E-9F42-EA6948B3BF58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2228,7 +2258,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3917156" y="40897969"/>
+          <a:off x="3893344" y="44231718"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2271,22 +2301,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>481661</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
+      <xdr:colOff>440532</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>529285</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="正方形/長方形 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2FB953F-5464-4F04-BCCB-34F5F31E5547}"/>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96112D1C-2214-4E94-AA97-09F6490884E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2294,7 +2324,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6351442" y="40897969"/>
+          <a:off x="6310313" y="44219812"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2338,21 +2368,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="正方形/長方形 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08282E56-2219-491E-9F42-EA6948B3BF58}"/>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C54B64-F88C-4BCD-8DC8-A64275727319}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,7 +2390,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3893344" y="44231718"/>
+          <a:off x="3893344" y="47851219"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2403,22 +2433,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>440532</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>464344</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>488156</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:colOff>511968</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="正方形/長方形 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96112D1C-2214-4E94-AA97-09F6490884E8}"/>
+        <xdr:cNvPr id="78" name="正方形/長方形 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EF50F6-BB17-4CD3-AB9E-DEF13FDF3266}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2426,7 +2456,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6310313" y="44219812"/>
+          <a:off x="6334125" y="47851219"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2468,23 +2498,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>226219</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>236</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>511969</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>559593</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>226218</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="正方形/長方形 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C54B64-F88C-4BCD-8DC8-A64275727319}"/>
+        <xdr:cNvPr id="79" name="正方形/長方形 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75CAA43A-30DC-48BB-8C2B-D64A2F3C0916}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2522,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3893344" y="47851219"/>
+          <a:off x="5000625" y="75747562"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2534,23 +2564,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>464344</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>226219</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>511968</xdr:colOff>
-      <xdr:row>236</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>226218</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="正方形/長方形 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EF50F6-BB17-4CD3-AB9E-DEF13FDF3266}"/>
+        <xdr:cNvPr id="80" name="正方形/長方形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1991FD6-B9B1-48C9-BC36-1336E4C6B7BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2558,7 +2588,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6334125" y="47851219"/>
+          <a:off x="7298531" y="75747562"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2601,22 +2631,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>511969</xdr:colOff>
-      <xdr:row>353</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>559593</xdr:colOff>
-      <xdr:row>353</xdr:row>
-      <xdr:rowOff>226218</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="正方形/長方形 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75CAA43A-30DC-48BB-8C2B-D64A2F3C0916}"/>
+        <xdr:cNvPr id="81" name="正方形/長方形 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{215763C2-D243-4473-AD09-6144E3B13632}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2624,7 +2654,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5000625" y="75747562"/>
+          <a:off x="4964907" y="79462312"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2667,22 +2697,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>353</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>353</xdr:row>
-      <xdr:rowOff>226218</xdr:rowOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="正方形/長方形 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1991FD6-B9B1-48C9-BC36-1336E4C6B7BE}"/>
+        <xdr:cNvPr id="82" name="正方形/長方形 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48B87E56-D030-45EC-912D-CAD6FA89D650}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2690,7 +2720,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7298531" y="75747562"/>
+          <a:off x="7250907" y="79462312"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2733,22 +2763,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>368</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>369</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="正方形/長方形 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{215763C2-D243-4473-AD09-6144E3B13632}"/>
+        <xdr:cNvPr id="83" name="正方形/長方形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF15CD54-003A-44AF-8866-F794E69D9B2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2756,7 +2786,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4964907" y="79462312"/>
+          <a:off x="5012532" y="81557812"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2799,22 +2829,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>368</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>47631</xdr:colOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>369</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:colOff>95255</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="正方形/長方形 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48B87E56-D030-45EC-912D-CAD6FA89D650}"/>
+        <xdr:cNvPr id="84" name="正方形/長方形 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C320DE-9013-4F42-9CAB-CCAA0238BE3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2822,7 +2852,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7250907" y="79462312"/>
+          <a:off x="7298537" y="81557813"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2865,22 +2895,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>377</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>378</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
+      <xdr:colOff>500061</xdr:colOff>
+      <xdr:row>399</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="正方形/長方形 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF15CD54-003A-44AF-8866-F794E69D9B2B}"/>
+        <xdr:cNvPr id="85" name="正方形/長方形 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2758A2F-05D3-4DA1-B203-CD0B02DDB71E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2888,7 +2918,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5012532" y="81557812"/>
+          <a:off x="4941093" y="85605938"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2930,23 +2960,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>631031</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>47631</xdr:colOff>
-      <xdr:row>377</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95255</xdr:colOff>
-      <xdr:row>378</xdr:row>
+      <xdr:colOff>678656</xdr:colOff>
+      <xdr:row>399</xdr:row>
       <xdr:rowOff>83344</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="正方形/長方形 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C320DE-9013-4F42-9CAB-CCAA0238BE3B}"/>
+        <xdr:cNvPr id="86" name="正方形/長方形 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D592AD12-31F2-4E38-941E-3EABC0E5E01A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2954,7 +2984,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7298537" y="81557813"/>
+          <a:off x="7191375" y="85605938"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2997,22 +3027,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>394</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:colOff>535781</xdr:colOff>
+      <xdr:row>409</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>500061</xdr:colOff>
-      <xdr:row>395</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:colOff>583405</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="正方形/長方形 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2758A2F-05D3-4DA1-B203-CD0B02DDB71E}"/>
+        <xdr:cNvPr id="87" name="正方形/長方形 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{646EDF2D-BCA9-49FD-948E-DE19A61753C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3020,7 +3050,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4941093" y="85605938"/>
+          <a:off x="5024437" y="88272937"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3062,23 +3092,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>631031</xdr:colOff>
-      <xdr:row>394</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>678656</xdr:colOff>
-      <xdr:row>395</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>409</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="正方形/長方形 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D592AD12-31F2-4E38-941E-3EABC0E5E01A}"/>
+        <xdr:cNvPr id="88" name="正方形/長方形 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F7D5B9-C544-4927-8E7D-CA3867B01397}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3086,7 +3116,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7191375" y="85605938"/>
+          <a:off x="7322344" y="88272937"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3129,22 +3159,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>535781</xdr:colOff>
-      <xdr:row>405</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>428</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>583405</xdr:colOff>
-      <xdr:row>406</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:colOff>547686</xdr:colOff>
+      <xdr:row>429</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="正方形/長方形 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{646EDF2D-BCA9-49FD-948E-DE19A61753C5}"/>
+        <xdr:cNvPr id="89" name="正方形/長方形 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{775D4EEC-6D89-4EB1-87CF-58EA0EA4B5EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3152,7 +3182,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5024437" y="88272937"/>
+          <a:off x="4988718" y="92678250"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3195,22 +3225,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>71438</xdr:colOff>
-      <xdr:row>405</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>428</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>406</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>429</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="正方形/長方形 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F7D5B9-C544-4927-8E7D-CA3867B01397}"/>
+        <xdr:cNvPr id="90" name="正方形/長方形 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A189A5A-A8A7-4A96-BB84-AD81EB25CDA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3218,7 +3248,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7322344" y="88272937"/>
+          <a:off x="7262813" y="92678250"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3261,22 +3291,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>424</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>464344</xdr:colOff>
+      <xdr:row>441</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>547686</xdr:colOff>
-      <xdr:row>425</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:colOff>511968</xdr:colOff>
+      <xdr:row>442</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="正方形/長方形 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{775D4EEC-6D89-4EB1-87CF-58EA0EA4B5EC}"/>
+        <xdr:cNvPr id="91" name="正方形/長方形 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF253BAC-13B6-4D18-B3D2-C0F2E9A949D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3284,7 +3314,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4988718" y="92678250"/>
+          <a:off x="4953000" y="95881032"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3326,23 +3356,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>424</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>654843</xdr:colOff>
+      <xdr:row>441</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>59531</xdr:colOff>
-      <xdr:row>425</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:colOff>11905</xdr:colOff>
+      <xdr:row>442</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="正方形/長方形 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A189A5A-A8A7-4A96-BB84-AD81EB25CDA9}"/>
+        <xdr:cNvPr id="92" name="正方形/長方形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2EDF9FF-078A-47BE-89E1-157D7B52764F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3350,7 +3380,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7262813" y="92678250"/>
+          <a:off x="7215187" y="95881031"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3393,22 +3423,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>464344</xdr:colOff>
-      <xdr:row>437</xdr:row>
-      <xdr:rowOff>154782</xdr:rowOff>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>456</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>511968</xdr:colOff>
-      <xdr:row>438</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:colOff>535780</xdr:colOff>
+      <xdr:row>457</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="正方形/長方形 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF253BAC-13B6-4D18-B3D2-C0F2E9A949D4}"/>
+        <xdr:cNvPr id="93" name="正方形/長方形 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3986ECE2-4364-4BC0-90DB-EA522FF01EE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3416,7 +3446,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4953000" y="95881032"/>
+          <a:off x="4976812" y="99488625"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3459,22 +3489,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>654843</xdr:colOff>
-      <xdr:row>437</xdr:row>
+      <xdr:colOff>678656</xdr:colOff>
+      <xdr:row>456</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>457</xdr:row>
       <xdr:rowOff>154781</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>11905</xdr:colOff>
-      <xdr:row>438</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="正方形/長方形 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2EDF9FF-078A-47BE-89E1-157D7B52764F}"/>
+        <xdr:cNvPr id="94" name="正方形/長方形 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D7A17B-552D-4819-A56C-8949BE4F2A66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3482,7 +3512,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7215187" y="95881031"/>
+          <a:off x="7239000" y="99488625"/>
           <a:ext cx="738187" cy="202406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3522,25 +3552,373 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>462</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>486</xdr:row>
+      <xdr:rowOff>107599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="図 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{342BEFCF-9ECA-7692-C3C3-EECC50348B07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047751" y="100738781"/>
+          <a:ext cx="10918030" cy="5810693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>490</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>559594</xdr:colOff>
+      <xdr:row>514</xdr:row>
+      <xdr:rowOff>107601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="図 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B3A8F01-AE9C-2EF9-6287-190EA3583A14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1035844" y="107406282"/>
+          <a:ext cx="10918031" cy="5810694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>195263</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>229450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62082E4-8315-3466-BEEC-D5F6C4899732}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="2876550"/>
+          <a:ext cx="7720013" cy="4287100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>50007</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>135731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>226219</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>224896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{615D34FC-5459-E867-FD89-45C73539B316}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9327357" y="2859881"/>
+          <a:ext cx="7720012" cy="4299215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1002772</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>236801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>170922</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC6E804-974D-3C1C-6D45-F31288180515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="-305" t="-279" r="305" b="4479"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1002772" y="5951801"/>
+          <a:ext cx="7800181" cy="4097073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52916</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>258233</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{403F25CE-10AA-B627-DEF6-FF02183B72EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="4469"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9375510" y="5954182"/>
+          <a:ext cx="7801504" cy="4094693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>10585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>535395</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>203399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3085186C-508B-4F34-9E5B-2BFA8BA9B206}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="56726668"/>
+          <a:ext cx="6716062" cy="1409897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>488156</xdr:colOff>
-      <xdr:row>452</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>535780</xdr:colOff>
-      <xdr:row>453</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>21167</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>455084</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>10584</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="正方形/長方形 92">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3986ECE2-4364-4BC0-90DB-EA522FF01EE8}"/>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D94C9E0-A226-45BF-9DEB-73471E9D9922}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3548,8 +3926,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4976812" y="99488625"/>
-          <a:ext cx="738187" cy="202406"/>
+          <a:off x="1058334" y="57213500"/>
+          <a:ext cx="6625167" cy="243417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3590,23 +3968,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>678656</xdr:colOff>
-      <xdr:row>452</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>35718</xdr:colOff>
-      <xdr:row>453</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>169334</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>179918</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>216958</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="正方形/長方形 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D7A17B-552D-4819-A56C-8949BE4F2A66}"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0036653F-2081-4377-A625-E8CC66C90547}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3614,8 +3992,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7239000" y="99488625"/>
-          <a:ext cx="738187" cy="202406"/>
+          <a:off x="3958167" y="59330168"/>
+          <a:ext cx="735541" cy="179916"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3654,25 +4032,284 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>171452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>107951</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A11C7390-B302-4799-9D29-713394721B97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5628217" y="59321702"/>
+          <a:ext cx="735541" cy="179916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>458</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>482</xdr:row>
-      <xdr:rowOff>107599</xdr:rowOff>
-    </xdr:to>
+      <xdr:colOff>52915</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>613832</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>105832</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E7A8E45-66F3-4A33-894E-E8E572A3473D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1090082" y="59340751"/>
+          <a:ext cx="560917" cy="158748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>664634</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>192618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>537635</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>107949</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D9EB638-0E38-4B4E-A6A5-B50303206F27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1701801" y="59342868"/>
+          <a:ext cx="560917" cy="158748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>622301</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>687916</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>107949</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7363CE93-B2DC-46F7-A3A6-089838579B0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2347384" y="59340751"/>
+          <a:ext cx="753532" cy="160865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>42336</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6716062" cy="1409897"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="図 95">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{342BEFCF-9ECA-7692-C3C3-EECC50348B07}"/>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7AFA425-8B23-4D52-8A2B-787F0145C36C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3681,7 +4318,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3694,8 +4331,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047751" y="100738781"/>
-          <a:ext cx="10918030" cy="5810693"/>
+          <a:off x="1037167" y="16838086"/>
+          <a:ext cx="6716062" cy="1409897"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3703,276 +4340,422 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>21168</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>63502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{597B4F2C-846D-4B06-8BD1-FDC7C99EA4C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1058335" y="17346085"/>
+          <a:ext cx="3767665" cy="211666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63499</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>201082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>624416</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>116413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{826B5727-0FD2-4A6D-AF39-B985B3B58A8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1100666" y="19187582"/>
+          <a:ext cx="560917" cy="158748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>201082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>560917</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>116413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E519050-66B1-436B-A2DF-C0058DB14E1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1725083" y="19187582"/>
+          <a:ext cx="560917" cy="158748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>645584</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>201083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>105832</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB0FA5C-7878-4C3A-B2CC-A772A2EE6EE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2370667" y="19187583"/>
+          <a:ext cx="740833" cy="148166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63499</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>201082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>116416</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>105831</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C6D265A-89A7-4626-AE4B-C96F8424845E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3164416" y="19187582"/>
+          <a:ext cx="740833" cy="148166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>465667</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>201082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>518583</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>105831</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EED20AE-EDCF-40FD-AABD-4A8F9CC51729}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4942417" y="19187582"/>
+          <a:ext cx="740833" cy="148166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>486</xdr:row>
-      <xdr:rowOff>11907</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>559594</xdr:colOff>
-      <xdr:row>510</xdr:row>
-      <xdr:rowOff>107601</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>95163</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>24444</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="図 97">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B3A8F01-AE9C-2EF9-6287-190EA3583A14}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1035844" y="107406282"/>
-          <a:ext cx="10918031" cy="5810694"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>195263</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>229450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62082E4-8315-3466-BEEC-D5F6C4899732}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1066800" y="2876550"/>
-          <a:ext cx="7720013" cy="4287100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>50007</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>135731</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>226219</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>224896</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{615D34FC-5459-E867-FD89-45C73539B316}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9327357" y="2859881"/>
-          <a:ext cx="7720012" cy="4299215"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1026584</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>194734</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>1058</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC6E804-974D-3C1C-6D45-F31288180515}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1026584" y="1227666"/>
-          <a:ext cx="7772400" cy="4371975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>52916</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1057</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>258233</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>1057</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{403F25CE-10AA-B627-DEF6-FF02183B72EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9345083" y="1218140"/>
-          <a:ext cx="7772400" cy="4381500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>205317</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>4161</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA1A42E-73FC-7A68-F79D-14B6A75915DD}"/>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196D9D33-1D47-82AE-6005-04E93E217DE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3994,14 +4777,1491 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1037167" y="1217083"/>
-          <a:ext cx="7772400" cy="4142245"/>
+          <a:off x="12742333" y="72315917"/>
+          <a:ext cx="6963747" cy="733527"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>74082</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>222251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>613832</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>21168</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="矢印: 右 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD5483E-7599-0DF8-B1DD-F14432CF1CA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12117915" y="67892084"/>
+          <a:ext cx="539750" cy="285751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="図 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22B6CAD1-4DA8-48CA-A3B3-82467947D991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="16662" t="43229" r="31552" b="40006"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12731751" y="74263250"/>
+          <a:ext cx="5598583" cy="984250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>169335</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>179919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>216960</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>116418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF7CE2B-7399-48A1-85EC-E6EA0A500E25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15652752" y="74665419"/>
+          <a:ext cx="735541" cy="179916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>463552</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>171453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>511176</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>107952</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9AB39C6-AED1-4DD8-968A-60F71897E16C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17322802" y="74656953"/>
+          <a:ext cx="735541" cy="179916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>52917</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>190502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>613834</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF649C2B-184B-453D-978E-6148D64367ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12784667" y="74676002"/>
+          <a:ext cx="560917" cy="158748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>664636</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>192619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>537636</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5EA978-541E-4E94-B9A7-3FB52C553647}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13396386" y="74678119"/>
+          <a:ext cx="560917" cy="158748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>622302</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>190502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11992B15-C986-473A-98D7-F85BD4B64FD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14041969" y="74676002"/>
+          <a:ext cx="753532" cy="160865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>211667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>624417</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>10584</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="矢印: 右 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91DDAEB-BFBB-4C0D-BCC3-9F18F8C6CEF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12128500" y="74453750"/>
+          <a:ext cx="539750" cy="285751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="984250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="図 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{050B7773-85D1-4121-AC2B-FFFBBE76BF0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="16213" t="43426" r="31365" b="39352"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12731750" y="27506083"/>
+          <a:ext cx="5715000" cy="984250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>168274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>656167</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>83605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A16AF32F-EBFD-498F-98BF-1564732DB326}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12827000" y="27917774"/>
+          <a:ext cx="560917" cy="158748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>168274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>592667</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>83605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="正方形/長方形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE84F07A-EC47-46EA-9CB5-1FE066A0BC3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13451417" y="27917774"/>
+          <a:ext cx="560917" cy="158748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>677334</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>42334</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>73024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="正方形/長方形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F6FF412-BBB3-497C-B0B7-3DC88E2C0C76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14097001" y="27917775"/>
+          <a:ext cx="740833" cy="148166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>168274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>148166</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>73023</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="正方形/長方形 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F4BB24-B9F0-4AB2-94A2-B221C46B20A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14890750" y="27917774"/>
+          <a:ext cx="740833" cy="148166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>497418</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>168274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>550334</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>73023</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="正方形/長方形 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A54728D-512B-4435-9B3E-A6EC9FC0CA4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16668751" y="27917774"/>
+          <a:ext cx="740833" cy="148166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>84664</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>232834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>624414</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="矢印: 右 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E4EE25-AEAA-46B1-8644-DBF7E2A310D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12128497" y="27738917"/>
+          <a:ext cx="539750" cy="285751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="正方形/長方形 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37BA974F-4981-4DEC-B45E-9BBF4116440A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12763500" y="67976750"/>
+          <a:ext cx="6847417" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>234156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>186531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="図 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795D0CF9-C59D-337A-517B-41C7B444F533}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="13596" t="39637" r="45304" b="35030"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1051719" y="33571656"/>
+          <a:ext cx="7612062" cy="2571750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A65BB21-4F11-B691-3F8D-2989E5D0B321}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3881438" y="35659219"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>464345</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>511969</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C88C6E8-C758-42B7-BCFC-DAFD631B0AA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6334126" y="35671125"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="図 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CED57E95-6420-BF23-4197-12CA8D0DA37F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="13238" t="39708" r="44739" b="32050"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="37171312"/>
+          <a:ext cx="7369968" cy="2786063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1023938</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>164307</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="図 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDE8704-307D-0362-51DA-E5634C6A434F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1023938" y="1190624"/>
+          <a:ext cx="7772400" cy="3937409"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>202405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="正方形/長方形 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77DF3EBA-EFFF-4E8E-BFDD-1665AC9542CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="1154905"/>
+          <a:ext cx="2155031" cy="226219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>678657</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="正方形/長方形 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8315DC09-2BE0-455E-A95C-DDCCF3AF63FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3786188" y="39433500"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>297655</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="正方形/長方形 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC1B1A1D-17FF-41E1-A18E-89C330CBA2CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6119812" y="39433500"/>
+          <a:ext cx="738187" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4270,10 +6530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB87C5F3-AF35-4481-86D2-A4273C4498F7}">
-  <dimension ref="A1:F485"/>
+  <dimension ref="A1:S489"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4293,239 +6553,288 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="B69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="B77" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19">
+      <c r="S114" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" t="s">
         <v>51</v>
       </c>
-      <c r="B45" t="s">
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
         <v>52</v>
       </c>
+      <c r="B155" t="s">
+        <v>53</v>
+      </c>
+      <c r="C155" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" t="s">
-        <v>4</v>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94" t="s">
-        <v>2</v>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>10</v>
+      </c>
+      <c r="B179" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>6</v>
-      </c>
-      <c r="B121" t="s">
-        <v>3</v>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>55</v>
+      </c>
+      <c r="B188" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
-        <v>8</v>
-      </c>
-      <c r="B149" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>9</v>
-      </c>
-      <c r="B157" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
-        <v>10</v>
-      </c>
-      <c r="B166" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
-        <v>11</v>
-      </c>
-      <c r="B175" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
-        <v>12</v>
-      </c>
-      <c r="B186" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
-        <v>13</v>
-      </c>
-      <c r="B198" t="s">
-        <v>41</v>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>56</v>
+      </c>
+      <c r="B199" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
+        <v>57</v>
+      </c>
+      <c r="B211" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>58</v>
+      </c>
+      <c r="B224" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>59</v>
+      </c>
+      <c r="B238" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>60</v>
+      </c>
+      <c r="B254" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="B256" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="B264" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>61</v>
+      </c>
+      <c r="B272" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="299" spans="1:19">
+      <c r="A299" t="s">
+        <v>62</v>
+      </c>
+      <c r="B299" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="300" spans="1:19">
+      <c r="S300" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="326" spans="1:19">
+      <c r="A326" t="s">
+        <v>63</v>
+      </c>
+      <c r="B326" t="s">
         <v>14</v>
       </c>
-      <c r="B211" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="225" spans="1:2">
-      <c r="A225" t="s">
-        <v>15</v>
-      </c>
-      <c r="B225" t="s">
-        <v>43</v>
+    <row r="327" spans="1:19">
+      <c r="S327" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
-      <c r="A241" t="s">
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
         <v>16</v>
       </c>
-      <c r="B241" t="s">
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>64</v>
+      </c>
+      <c r="B354" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>22</v>
+      </c>
+      <c r="B361" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
+        <v>21</v>
+      </c>
+      <c r="B377" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
+        <v>20</v>
+      </c>
+      <c r="B386" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
+        <v>19</v>
+      </c>
+      <c r="B403" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" t="s">
         <v>18</v>
       </c>
+      <c r="B414" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="268" spans="1:2">
-      <c r="A268" t="s">
+    <row r="433" spans="1:2">
+      <c r="A433" t="s">
         <v>17</v>
       </c>
-      <c r="B268" t="s">
-        <v>19</v>
+      <c r="B433" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
-      <c r="A295" t="s">
-        <v>20</v>
-      </c>
-      <c r="B295" t="s">
-        <v>22</v>
+    <row r="446" spans="1:2">
+      <c r="A446" t="s">
+        <v>65</v>
+      </c>
+      <c r="B446" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
-      <c r="A322" t="s">
-        <v>21</v>
-      </c>
-      <c r="B322" t="s">
-        <v>23</v>
+    <row r="461" spans="1:2">
+      <c r="A461" t="s">
+        <v>66</v>
+      </c>
+      <c r="B461" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
-      <c r="A349" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2">
-      <c r="A350" t="s">
-        <v>34</v>
-      </c>
-      <c r="B350" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2">
-      <c r="A357" t="s">
-        <v>33</v>
-      </c>
-      <c r="B357" t="s">
+    <row r="489" spans="1:2">
+      <c r="A489" t="s">
+        <v>67</v>
+      </c>
+      <c r="B489" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2">
-      <c r="A373" t="s">
-        <v>32</v>
-      </c>
-      <c r="B373" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2">
-      <c r="A382" t="s">
-        <v>31</v>
-      </c>
-      <c r="B382" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2">
-      <c r="A399" t="s">
-        <v>30</v>
-      </c>
-      <c r="B399" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2">
-      <c r="A410" t="s">
-        <v>29</v>
-      </c>
-      <c r="B410" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2">
-      <c r="A429" t="s">
-        <v>28</v>
-      </c>
-      <c r="B429" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2">
-      <c r="A442" t="s">
-        <v>27</v>
-      </c>
-      <c r="B442" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2">
-      <c r="A457" t="s">
-        <v>26</v>
-      </c>
-      <c r="B457" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2">
-      <c r="A485" t="s">
-        <v>48</v>
-      </c>
-      <c r="B485" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/設計書_打刻侍/50_単体テスト/エビデンス/単体テストエビデンス_(S200)社員画面.xlsx
+++ b/設計書_打刻侍/50_単体テスト/エビデンス/単体テストエビデンス_(S200)社員画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_suzuki\Desktop\dakokusamurai-git-repository\設計書_打刻侍\50_単体テスト\エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADD1FAA-BB67-41B9-B0ED-271ABC889AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8F5556-135C-4AE6-8350-A921D3A627A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4695" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6264,6 +6264,534 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>464343</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{559CD475-EA2F-4D2B-859B-B64DDE8CB4FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4262437" y="7548563"/>
+          <a:ext cx="1369220" cy="261937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>505354</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>155838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>493449</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>179650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A7D2CB4-D42C-4891-9EC7-418ED7C7C31D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12590198" y="7537713"/>
+          <a:ext cx="1369220" cy="261937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>416718</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BDC0BF5-EB24-477C-B7FA-C018E16DBF99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15263812" y="6977062"/>
+          <a:ext cx="2012157" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>350572</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>48682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>96307</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE66795-F8D5-47B7-812C-5B9DF7C5AC51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6910916" y="6954307"/>
+          <a:ext cx="1983053" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>369093</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD0DA25-1FE0-4803-B25A-77778F726186}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4167187" y="13049250"/>
+          <a:ext cx="1369220" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>392907</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2DEFC1-ACCE-4A5E-9A76-628B1354A992}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12489656" y="13025438"/>
+          <a:ext cx="1369220" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="正方形/長方形 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{033CC617-C7CA-4DCA-B1AA-23950CE2076E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="11096625"/>
+          <a:ext cx="1154906" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="正方形/長方形 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48565CBC-1A78-4B16-90BD-3F8C461FE71E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15132843" y="11096625"/>
+          <a:ext cx="1071563" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6533,7 +7061,7 @@
   <dimension ref="A1:S489"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
